--- a/medicine/Sexualité et sexologie/Bbbj/Bbbj.xlsx
+++ b/medicine/Sexualité et sexologie/Bbbj/Bbbj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bbbj (Bareback blowjob) est un sigle utilisé par les travailleuses et travailleurs du sexe. 
 Ce sigle, souvent présent dans les annonces des agences d'escortes et des prostitués annonçant leurs services via les médias écrits, indique qu'ils (ou elles) acceptent de pratiquer des fellations sans préservatif (barebacking).
